--- a/96boards-sensors-bom-test.xlsx
+++ b/96boards-sensors-bom-test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="237">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -649,7 +649,7 @@
     <t>g.</t>
   </si>
   <si>
-    <t>Program ATMEGA328 using ISP header with standard Arduino UNO bootloader</t>
+    <t>Program supplied Arduino “BlinkAll” sketch onto ATMEGA328 using ISP header</t>
   </si>
   <si>
     <t>h.</t>
@@ -667,67 +667,61 @@
     <t>j.</t>
   </si>
   <si>
-    <t>Using Arduino IDE, program UUT with example “Blink” sketch. You will need to manually press the “reset” button on the UUT to initiate programming</t>
+    <t>Using serial terminal emulator on PC, verify ATMEGA is responding to serial traffic</t>
   </si>
   <si>
     <t>k.</t>
   </si>
   <si>
-    <t>Verify UUT LED D3 (PB5) is flashing.</t>
+    <t>Connect GROVE LED modules to connectors P8-11, P14-16 and P18. 8 modules in all (or use a single module to test each connector one at a time.)</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Seeed's regular GROVE LED modules only use a single GPIO signal on the GROVE connector. For complete testing we would want a Grove module with 2 LEDs so that both signals get tested.</t>
   </si>
   <si>
     <t>l.</t>
   </si>
   <si>
-    <t>Using Arduino IDE, program UUT with provided “BlinkAll” sketch. You will need to manually press the “reset” button on the UUT to initiate programming</t>
+    <t>Verify all LEDs on GROVE modules are flashing.</t>
   </si>
   <si>
     <t>m.</t>
   </si>
   <si>
-    <t>Connect GROVE LED modules to connectors P7-11 and P14-18. 10 modules in all (or use a single module to test each connector one at a time.)</t>
-  </si>
-  <si>
-    <t>Note:</t>
-  </si>
-  <si>
-    <t>Seeed's regular GROVE LED modules only use a single GPIO signal on the GROVE connector. For complete testing we would want a Grove module with 2 LEDs so that both signals get tested.</t>
+    <t>Connect GROVE cable from P14 to P12</t>
   </si>
   <si>
     <t>n.</t>
   </si>
   <si>
-    <t>Verify all LEDs on GROVE modules are flashing.</t>
+    <t>Connect GROVE cable from P15 to P19</t>
   </si>
   <si>
     <t>o.</t>
   </si>
   <si>
-    <t>Connect GROVE cable from P11 to P13</t>
+    <t>Verify UUT LEDs are flashing: D4-D7 (GPIOA-GPIOD)</t>
   </si>
   <si>
     <t>p.</t>
   </si>
   <si>
-    <t>Connect GROVE cable from P18 to P20</t>
+    <t>Connect GROVE LED modules to P13 and P20</t>
   </si>
   <si>
     <t>q.</t>
   </si>
   <si>
-    <t>Verify UUT LEDs are flashing: D4-D7 (GPIOA-GPIOD)</t>
+    <t>Verify all LEDs on GROVE modules are flashing</t>
   </si>
   <si>
     <t>r.</t>
   </si>
   <si>
-    <t>Connect GROVE LED modules to P14 and P29</t>
-  </si>
-  <si>
-    <t>s.</t>
-  </si>
-  <si>
-    <t>Verify all LEDs on GROVE modules are flashing</t>
+    <t>Program standard Arduino UNO bootloader onto ATMEGA328 using ISP header in preparation for shipping.</t>
   </si>
   <si>
     <t>FT_PROG</t>
@@ -3362,15 +3356,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:colOff>174240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3902400</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:colOff>3994920</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3383,8 +3377,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="81000" y="16339320"/>
-          <a:ext cx="5085360" cy="5250240"/>
+          <a:off x="174240" y="16467480"/>
+          <a:ext cx="5084640" cy="5249520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3407,7 +3401,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="8:8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4810,7 +4804,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="1" sqref="8:8 B28"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4937,10 +4931,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="8:8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5336,7 +5330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
         <v>215</v>
       </c>
@@ -5344,43 +5338,43 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
+    <row r="59" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19" t="s">
         <v>219</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="0" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19" t="s">
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="22" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5400,15 +5394,15 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
         <v>233</v>
       </c>
@@ -5417,25 +5411,18 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B68" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21"/>
-      <c r="B68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A7:B7"/>
